--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2598341.313984104</v>
+        <v>-2600124.219843967</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.32191822</v>
+        <v>6028847.321918217</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.165107859198</v>
+        <v>300.064967220799</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>332.9594913636451</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040937</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997376</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>115.4434084920664</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>86.9644498455848</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403319</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035621</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>78.0763466511184</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8590221842308</v>
+        <v>134.6105413724846</v>
       </c>
       <c r="H12" t="n">
-        <v>97.89834799213801</v>
+        <v>18.32961418785547</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084461</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>64.54059415929279</v>
@@ -1512,10 +1512,10 @@
         <v>172.1262493566371</v>
       </c>
       <c r="X12" t="n">
-        <v>158.2498466307942</v>
+        <v>126.2042513991949</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>126.1139619730218</v>
       </c>
     </row>
     <row r="13">
@@ -1607,7 +1607,7 @@
         <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D14" t="n">
         <v>275.1143078164004</v>
@@ -1616,16 +1616,16 @@
         <v>302.3616362679792</v>
       </c>
       <c r="F14" t="n">
-        <v>281.5762326485435</v>
+        <v>3.441075254836903</v>
       </c>
       <c r="G14" t="n">
         <v>332.9594913636451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997373</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W14" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>78.0763466511184</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>123.0271261025883</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8590221842308</v>
+        <v>56.29028837994819</v>
       </c>
       <c r="H15" t="n">
-        <v>97.89834799213801</v>
+        <v>75.85626170134242</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S15" t="n">
         <v>144.1093279635753</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968429</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S16" t="n">
         <v>122.7587393607691</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.81295415566579</v>
+        <v>51.8129541556658</v>
       </c>
       <c r="U17" t="n">
         <v>91.98622431149481</v>
@@ -1907,7 +1907,7 @@
         <v>190.1035011088479</v>
       </c>
       <c r="X17" t="n">
-        <v>197.1673064627157</v>
+        <v>197.1673064627161</v>
       </c>
       <c r="Y17" t="n">
         <v>227.1004710474885</v>
@@ -1938,10 +1938,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
-        <v>34.57325905991281</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S18" t="n">
-        <v>144.1093279635753</v>
+        <v>80.7842390313504</v>
       </c>
       <c r="T18" t="n">
         <v>194.1811721786702</v>
@@ -2002,28 +2002,28 @@
         <v>20.69451257337221</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>8.109353490062745</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>69.55482901767967</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>7.60896102693526</v>
+        <v>7.608961026935261</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I19" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>132.1669597004695</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T19" t="n">
         <v>63.49049600343957</v>
@@ -2065,7 +2065,7 @@
         <v>127.3855307280259</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047206</v>
       </c>
       <c r="Y19" t="n">
         <v>59.4471857435297</v>
@@ -2096,7 +2096,7 @@
         <v>253.3907575593626</v>
       </c>
       <c r="H20" t="n">
-        <v>138.4965333241755</v>
+        <v>151.9228599313641</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566579</v>
+        <v>51.8129541556658</v>
       </c>
       <c r="U20" t="n">
         <v>91.98622431149481</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615698</v>
+        <v>155.1884642543822</v>
       </c>
       <c r="W20" t="n">
         <v>190.1035011088479</v>
@@ -2178,7 +2178,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S21" t="n">
-        <v>80.7842390313504</v>
+        <v>42.4985078684977</v>
       </c>
       <c r="T21" t="n">
         <v>194.1811721786702</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337221</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062745</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.38492158442463</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>85.07974620050723</v>
+        <v>7.608961026935261</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648653</v>
+        <v>43.19000555648654</v>
       </c>
       <c r="T22" t="n">
         <v>63.49049600343957</v>
@@ -2299,7 +2299,7 @@
         <v>93.00017571526291</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X22" t="n">
         <v>66.57218778047206</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566579</v>
+        <v>51.8129541556658</v>
       </c>
       <c r="U23" t="n">
         <v>91.98622431149481</v>
@@ -2415,7 +2415,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S24" t="n">
-        <v>63.91376107377053</v>
+        <v>55.92483447568624</v>
       </c>
       <c r="T24" t="n">
         <v>194.1811721786702</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.69451257337221</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062745</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7464286355003</v>
+        <v>78.69738757335585</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.94879058321926</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648653</v>
+        <v>43.19000555648654</v>
       </c>
       <c r="T25" t="n">
         <v>63.49049600343957</v>
@@ -2573,7 +2573,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T26" t="n">
         <v>131.3816879599484</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635753</v>
@@ -2713,25 +2713,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C28" t="n">
-        <v>87.6780872943453</v>
+        <v>87.67808729434529</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392983</v>
+        <v>69.04673921392981</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228664</v>
+        <v>66.86522884228663</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864871</v>
+        <v>65.8523142186487</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121782</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I28" t="n">
-        <v>38.45470665437194</v>
+        <v>38.45470665437193</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040934</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T29" t="n">
         <v>131.3816879599484</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S30" t="n">
         <v>144.1093279635753</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434529</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392981</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F31" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I31" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>303.165107859198</v>
       </c>
       <c r="C32" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D32" t="n">
         <v>275.1143078164004</v>
@@ -3038,16 +3038,16 @@
         <v>302.3616362679792</v>
       </c>
       <c r="F32" t="n">
-        <v>327.3073119374289</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9594913636451</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H32" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356465</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040933</v>
+        <v>23.94276850040929</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997372</v>
+        <v>66.22713566997368</v>
       </c>
       <c r="T32" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U32" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V32" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W32" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X32" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.669204851771</v>
+        <v>306.6692048517709</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S33" t="n">
         <v>144.1093279635753</v>
@@ -3187,25 +3187,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434527</v>
+        <v>87.6780872943452</v>
       </c>
       <c r="D34" t="n">
-        <v>69.0467392139298</v>
+        <v>69.04673921392973</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228661</v>
+        <v>66.86522884228654</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864869</v>
+        <v>65.85231421864862</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121772</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630854</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437191</v>
+        <v>38.45470665437185</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968427</v>
+        <v>41.76513142968422</v>
       </c>
       <c r="S34" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T34" t="n">
-        <v>143.0592298077221</v>
+        <v>143.059229807722</v>
       </c>
       <c r="U34" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V34" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W34" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X34" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847545</v>
       </c>
       <c r="Y34" t="n">
         <v>139.0159195478122</v>
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S36" t="n">
         <v>144.1093279635753</v>
@@ -3427,19 +3427,19 @@
         <v>21.45095162437153</v>
       </c>
       <c r="D37" t="n">
-        <v>2.819603543956049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0.638093172312864</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.1386217316458</v>
+        <v>20.95055916124404</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334857</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079532</v>
       </c>
       <c r="T37" t="n">
-        <v>76.83209413774834</v>
+        <v>76.83209413774836</v>
       </c>
       <c r="U37" t="n">
-        <v>140.4552752973459</v>
+        <v>237.2685164164222</v>
       </c>
       <c r="V37" t="n">
         <v>106.3417738495717</v>
@@ -3487,7 +3487,7 @@
         <v>140.7271288623347</v>
       </c>
       <c r="X37" t="n">
-        <v>79.91378591478085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>72.78878387783848</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.15455228997457</v>
+        <v>65.15455228997459</v>
       </c>
       <c r="U38" t="n">
         <v>105.3278224458036</v>
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S39" t="n">
         <v>144.1093279635753</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7464286355003</v>
+        <v>20.95055916124404</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1793568154114</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
-        <v>56.53160369079531</v>
+        <v>172.4374050466479</v>
       </c>
       <c r="T40" t="n">
-        <v>76.83209413774834</v>
+        <v>76.83209413774836</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2511447716022</v>
+        <v>140.4552752973459</v>
       </c>
       <c r="V40" t="n">
         <v>106.3417738495717</v>
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S42" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T42" t="n">
         <v>194.1811721786702</v>
@@ -3901,7 +3901,7 @@
         <v>21.45095162437153</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>2.819603543956049</v>
       </c>
       <c r="E43" t="n">
         <v>0.638093172312864</v>
@@ -3913,7 +3913,7 @@
         <v>20.95055916124404</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S43" t="n">
-        <v>56.53160369079532</v>
+        <v>177.8068490501611</v>
       </c>
       <c r="T43" t="n">
         <v>76.83209413774836</v>
       </c>
       <c r="U43" t="n">
-        <v>237.2685164164221</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>106.3417738495717</v>
       </c>
       <c r="W43" t="n">
         <v>140.7271288623347</v>
@@ -4074,7 +4074,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S45" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T45" t="n">
         <v>194.1811721786702</v>
@@ -4135,22 +4135,22 @@
         <v>34.03611070768099</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>21.45095162437153</v>
       </c>
       <c r="D46" t="n">
         <v>2.819603543956049</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>97.4513342913893</v>
       </c>
       <c r="F46" t="n">
-        <v>96.81324111907621</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>20.95055916124404</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.78878387783848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>727.5231047994509</v>
+        <v>1244.624136732043</v>
       </c>
       <c r="C11" t="n">
-        <v>727.5231047994509</v>
+        <v>956.0340781797956</v>
       </c>
       <c r="D11" t="n">
-        <v>727.5231047994509</v>
+        <v>678.1408379612094</v>
       </c>
       <c r="E11" t="n">
-        <v>727.5231047994509</v>
+        <v>372.7250437511295</v>
       </c>
       <c r="F11" t="n">
-        <v>396.9096583980077</v>
+        <v>372.7250437511295</v>
       </c>
       <c r="G11" t="n">
-        <v>60.58693984887118</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="H11" t="n">
-        <v>60.58693984887118</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="I11" t="n">
         <v>36.40232520199298</v>
       </c>
       <c r="J11" t="n">
-        <v>90.29531437608119</v>
+        <v>257.7009633964342</v>
       </c>
       <c r="K11" t="n">
-        <v>221.8054530777751</v>
+        <v>389.2111020981282</v>
       </c>
       <c r="L11" t="n">
-        <v>421.857170917103</v>
+        <v>589.262819937456</v>
       </c>
       <c r="M11" t="n">
-        <v>676.1226902968215</v>
+        <v>843.5283393171745</v>
       </c>
       <c r="N11" t="n">
-        <v>939.1162999853532</v>
+        <v>1132.317052094775</v>
       </c>
       <c r="O11" t="n">
-        <v>1174.118446746022</v>
+        <v>1367.319198855443</v>
       </c>
       <c r="P11" t="n">
         <v>1533.387093289898</v>
@@ -5066,25 +5066,25 @@
         <v>1820.116260099649</v>
       </c>
       <c r="S11" t="n">
-        <v>1753.220163463312</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="T11" t="n">
-        <v>1636.610659935972</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="U11" t="n">
-        <v>1636.610659935972</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="V11" t="n">
-        <v>1636.610659935972</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="W11" t="n">
-        <v>1636.610659935972</v>
+        <v>1547.720063217699</v>
       </c>
       <c r="X11" t="n">
-        <v>1343.517360063056</v>
+        <v>1547.720063217699</v>
       </c>
       <c r="Y11" t="n">
-        <v>1033.750486475409</v>
+        <v>1547.720063217699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>699.2354134122086</v>
+        <v>820.0467827394469</v>
       </c>
       <c r="C12" t="n">
-        <v>605.1548425192458</v>
+        <v>645.59375345832</v>
       </c>
       <c r="D12" t="n">
-        <v>536.5928912461587</v>
+        <v>496.6593437970687</v>
       </c>
       <c r="E12" t="n">
-        <v>457.7278946288674</v>
+        <v>337.4218887916132</v>
       </c>
       <c r="F12" t="n">
-        <v>311.1933366557523</v>
+        <v>190.8873308184982</v>
       </c>
       <c r="G12" t="n">
-        <v>173.9620011161253</v>
+        <v>54.9170870079076</v>
       </c>
       <c r="H12" t="n">
-        <v>75.07478092204647</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="I12" t="n">
         <v>36.40232520199298</v>
@@ -5130,40 +5130,40 @@
         <v>950.7819639874128</v>
       </c>
       <c r="N12" t="n">
-        <v>1202.985147450103</v>
+        <v>1401.260738362076</v>
       </c>
       <c r="O12" t="n">
-        <v>1411.481993228503</v>
+        <v>1609.757584140475</v>
       </c>
       <c r="P12" t="n">
-        <v>1563.122164526897</v>
+        <v>1757.761618040983</v>
       </c>
       <c r="Q12" t="n">
         <v>1820.116260099649</v>
       </c>
       <c r="R12" t="n">
-        <v>1812.046637273301</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="S12" t="n">
-        <v>1746.85411792048</v>
+        <v>1754.923740746828</v>
       </c>
       <c r="T12" t="n">
-        <v>1631.083978148371</v>
+        <v>1639.153600974719</v>
       </c>
       <c r="U12" t="n">
-        <v>1483.331468922777</v>
+        <v>1491.401091749125</v>
       </c>
       <c r="V12" t="n">
-        <v>1328.551819079199</v>
+        <v>1336.621441905547</v>
       </c>
       <c r="W12" t="n">
-        <v>1154.686920739161</v>
+        <v>1162.756543565509</v>
       </c>
       <c r="X12" t="n">
-        <v>994.8385908090663</v>
+        <v>1035.277501748141</v>
       </c>
       <c r="Y12" t="n">
-        <v>787.0782920441125</v>
+        <v>907.8896613713508</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334161</v>
+        <v>527.9861862334152</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936734</v>
+        <v>439.4224616936725</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695018</v>
+        <v>369.678280669501</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752729</v>
+        <v>302.1376454752721</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655267</v>
+        <v>235.6201563655259</v>
       </c>
       <c r="G13" t="n">
-        <v>147.561878758236</v>
+        <v>147.5618787582351</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671211</v>
+        <v>75.2454632367112</v>
       </c>
       <c r="I13" t="n">
         <v>36.40232520199298</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047546</v>
+        <v>109.8596221047544</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180465</v>
+        <v>309.7340958180462</v>
       </c>
       <c r="L13" t="n">
         <v>599.0017100013554</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035638</v>
+        <v>910.100887703564</v>
       </c>
       <c r="N13" t="n">
         <v>1221.11048570127</v>
@@ -5224,25 +5224,25 @@
         <v>1777.929258655523</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028483</v>
+        <v>1653.930532028484</v>
       </c>
       <c r="T13" t="n">
         <v>1509.426259495431</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.65614740723</v>
+        <v>1300.656147407229</v>
       </c>
       <c r="V13" t="n">
-        <v>1126.344117589507</v>
+        <v>1126.344117589506</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407107</v>
+        <v>917.2994059407099</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308576</v>
+        <v>769.6823134308568</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754916</v>
+        <v>629.2621926754907</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1254.101823438398</v>
+        <v>1519.761785871807</v>
       </c>
       <c r="C14" t="n">
-        <v>1254.101823438398</v>
+        <v>1231.171727319559</v>
       </c>
       <c r="D14" t="n">
-        <v>976.2085832198115</v>
+        <v>953.2784871009727</v>
       </c>
       <c r="E14" t="n">
-        <v>670.7927890097315</v>
+        <v>647.8626928908927</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3723519910006</v>
+        <v>644.386859300148</v>
       </c>
       <c r="G14" t="n">
-        <v>50.04963344186411</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="H14" t="n">
-        <v>50.04963344186411</v>
+        <v>74.23424808874226</v>
       </c>
       <c r="I14" t="n">
         <v>50.04963344186411</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3482716363055</v>
+        <v>103.9426226159523</v>
       </c>
       <c r="K14" t="n">
-        <v>723.7623687834526</v>
+        <v>556.3567197630994</v>
       </c>
       <c r="L14" t="n">
-        <v>954.6714240740847</v>
+        <v>908.1534507005041</v>
       </c>
       <c r="M14" t="n">
-        <v>1208.936943453803</v>
+        <v>1527.517664543572</v>
       </c>
       <c r="N14" t="n">
-        <v>1471.930553142335</v>
+        <v>1790.511274232104</v>
       </c>
       <c r="O14" t="n">
-        <v>1706.932699903004</v>
+        <v>2025.513420992773</v>
       </c>
       <c r="P14" t="n">
-        <v>2191.581315427227</v>
+        <v>2191.581315427228</v>
       </c>
       <c r="Q14" t="n">
         <v>2478.310482236978</v>
@@ -5303,25 +5303,25 @@
         <v>2502.481672093205</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456868</v>
+        <v>2502.481672093205</v>
       </c>
       <c r="T14" t="n">
-        <v>2435.585575456868</v>
+        <v>2369.772896376086</v>
       </c>
       <c r="U14" t="n">
-        <v>2435.585575456868</v>
+        <v>2369.772896376086</v>
       </c>
       <c r="V14" t="n">
-        <v>2435.585575456868</v>
+        <v>2119.08246742068</v>
       </c>
       <c r="W14" t="n">
-        <v>2163.189378574918</v>
+        <v>2119.08246742068</v>
       </c>
       <c r="X14" t="n">
-        <v>1870.096078702003</v>
+        <v>1825.989167547764</v>
       </c>
       <c r="Y14" t="n">
-        <v>1560.329205114355</v>
+        <v>1825.989167547764</v>
       </c>
     </row>
     <row r="15">
@@ -5340,16 +5340,16 @@
         <v>527.9754658589635</v>
       </c>
       <c r="E15" t="n">
-        <v>449.1104692416722</v>
+        <v>368.738010853508</v>
       </c>
       <c r="F15" t="n">
-        <v>324.8406448956234</v>
+        <v>222.203452880393</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559964</v>
+        <v>165.3445757289302</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191758</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I15" t="n">
         <v>50.04963344186411</v>
@@ -5358,19 +5358,19 @@
         <v>188.160206620026</v>
       </c>
       <c r="K15" t="n">
-        <v>468.3261196328547</v>
+        <v>550.8340172247568</v>
       </c>
       <c r="L15" t="n">
-        <v>650.2582691554093</v>
+        <v>1089.842266945345</v>
       </c>
       <c r="M15" t="n">
-        <v>1269.622482998478</v>
+        <v>1321.505372425318</v>
       </c>
       <c r="N15" t="n">
-        <v>1888.986696841546</v>
+        <v>1573.708555888008</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.483542619945</v>
+        <v>1782.205401666408</v>
       </c>
       <c r="P15" t="n">
         <v>2245.487576520453</v>
@@ -5428,7 +5428,7 @@
         <v>161.2091869981071</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658322</v>
+        <v>88.89277147658323</v>
       </c>
       <c r="I16" t="n">
         <v>50.04963344186411</v>
@@ -5437,16 +5437,16 @@
         <v>123.5069303446257</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579177</v>
+        <v>323.3814040579176</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412269</v>
+        <v>612.6490182412267</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434356</v>
+        <v>923.7481959434352</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941142</v>
+        <v>1234.757793941141</v>
       </c>
       <c r="O16" t="n">
         <v>1512.022588807297</v>
@@ -5492,19 +5492,19 @@
         <v>1340.480033706642</v>
       </c>
       <c r="C17" t="n">
-        <v>1132.262433542559</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121369</v>
+        <v>934.7416517121363</v>
       </c>
       <c r="E17" t="n">
-        <v>709.698315890221</v>
+        <v>709.6983158902204</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769418</v>
+        <v>459.4573278769412</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H17" t="n">
         <v>50.04963344186411</v>
@@ -5513,28 +5513,28 @@
         <v>50.04963344186411</v>
       </c>
       <c r="J17" t="n">
-        <v>267.9653405834866</v>
+        <v>271.3482716363054</v>
       </c>
       <c r="K17" t="n">
-        <v>720.3794377306338</v>
+        <v>723.7623687834524</v>
       </c>
       <c r="L17" t="n">
-        <v>920.4311555699618</v>
+        <v>923.8140866227802</v>
       </c>
       <c r="M17" t="n">
-        <v>1174.696674949681</v>
+        <v>1527.517664543572</v>
       </c>
       <c r="N17" t="n">
-        <v>1437.690284638212</v>
+        <v>1790.511274232104</v>
       </c>
       <c r="O17" t="n">
-        <v>2049.684610848999</v>
+        <v>2025.513420992773</v>
       </c>
       <c r="P17" t="n">
-        <v>2215.752505283454</v>
+        <v>2191.581315427228</v>
       </c>
       <c r="Q17" t="n">
-        <v>2502.481672093205</v>
+        <v>2478.310482236978</v>
       </c>
       <c r="R17" t="n">
         <v>2502.481672093205</v>
@@ -5555,10 +5555,10 @@
         <v>1994.888267610803</v>
       </c>
       <c r="X17" t="n">
-        <v>1795.729372193919</v>
+        <v>1795.729372193918</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.334956994436</v>
+        <v>1566.334956994435</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.3629048013418</v>
+        <v>915.3276410965187</v>
       </c>
       <c r="C18" t="n">
-        <v>676.9098755202148</v>
+        <v>740.8746118153917</v>
       </c>
       <c r="D18" t="n">
-        <v>527.9754658589635</v>
+        <v>591.9402021541405</v>
       </c>
       <c r="E18" t="n">
-        <v>368.738010853508</v>
+        <v>432.702747148685</v>
       </c>
       <c r="F18" t="n">
-        <v>222.203452880393</v>
+        <v>286.16818917557</v>
       </c>
       <c r="G18" t="n">
-        <v>84.97211734076595</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H18" t="n">
-        <v>84.97211734076595</v>
+        <v>50.04963344186411</v>
       </c>
       <c r="I18" t="n">
         <v>50.04963344186411</v>
       </c>
       <c r="J18" t="n">
-        <v>185.5257124451046</v>
+        <v>188.160206620026</v>
       </c>
       <c r="K18" t="n">
-        <v>286.3789384073827</v>
+        <v>550.8340172247568</v>
       </c>
       <c r="L18" t="n">
-        <v>468.3110879299373</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.675301773006</v>
+        <v>1331.561214077709</v>
       </c>
       <c r="N18" t="n">
-        <v>1707.039515616074</v>
+        <v>1583.764397540399</v>
       </c>
       <c r="O18" t="n">
-        <v>2305.460057478436</v>
+        <v>1792.261243318799</v>
       </c>
       <c r="P18" t="n">
-        <v>2453.464091378944</v>
+        <v>2245.487576520453</v>
       </c>
       <c r="Q18" t="n">
         <v>2502.481672093205</v>
@@ -5619,25 +5619,25 @@
         <v>2494.412049266858</v>
       </c>
       <c r="S18" t="n">
-        <v>2348.847071525872</v>
+        <v>2412.811807821049</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.704473365599</v>
+        <v>2216.669209660776</v>
       </c>
       <c r="U18" t="n">
-        <v>1924.579505751841</v>
+        <v>1988.544242047018</v>
       </c>
       <c r="V18" t="n">
-        <v>1689.427397520098</v>
+        <v>1753.392133815275</v>
       </c>
       <c r="W18" t="n">
-        <v>1435.190040791897</v>
+        <v>1499.154777087073</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.338540586364</v>
+        <v>1291.303276881541</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.57824182141</v>
+        <v>1083.542978116587</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351.3109128234104</v>
+        <v>441.1866240799584</v>
       </c>
       <c r="C19" t="n">
-        <v>182.3747298955035</v>
+        <v>432.9953579283799</v>
       </c>
       <c r="D19" t="n">
-        <v>182.3747298955035</v>
+        <v>432.9953579283799</v>
       </c>
       <c r="E19" t="n">
-        <v>182.3747298955035</v>
+        <v>362.7379548802186</v>
       </c>
       <c r="F19" t="n">
-        <v>182.3747298955035</v>
+        <v>215.8480073823083</v>
       </c>
       <c r="G19" t="n">
-        <v>174.688910676377</v>
+        <v>208.1621881631817</v>
       </c>
       <c r="H19" t="n">
-        <v>174.688910676377</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="I19" t="n">
-        <v>55.47331425349363</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="J19" t="n">
         <v>50.04963344186411</v>
@@ -5677,16 +5677,16 @@
         <v>171.1510606889163</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059858</v>
+        <v>381.6456284059857</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419546</v>
+        <v>613.9717596419545</v>
       </c>
       <c r="N19" t="n">
-        <v>846.2083111734212</v>
+        <v>846.208311173421</v>
       </c>
       <c r="O19" t="n">
-        <v>1044.700059573337</v>
+        <v>1044.700059573336</v>
       </c>
       <c r="P19" t="n">
         <v>1191.023358609729</v>
@@ -5698,25 +5698,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S19" t="n">
-        <v>1075.392966677657</v>
+        <v>1004.523761157877</v>
       </c>
       <c r="T19" t="n">
-        <v>1011.261152532769</v>
+        <v>940.3919470129887</v>
       </c>
       <c r="U19" t="n">
-        <v>882.8634988327315</v>
+        <v>811.9942933129512</v>
       </c>
       <c r="V19" t="n">
-        <v>788.923927403173</v>
+        <v>718.0547218833926</v>
       </c>
       <c r="W19" t="n">
-        <v>660.2516741425408</v>
+        <v>589.3824686227604</v>
       </c>
       <c r="X19" t="n">
-        <v>432.2621232445234</v>
+        <v>522.1378345010714</v>
       </c>
       <c r="Y19" t="n">
-        <v>372.2144608773217</v>
+        <v>462.0901721338697</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.918087638774</v>
+        <v>1340.480033706642</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.700487474691</v>
+        <v>1132.262433542559</v>
       </c>
       <c r="D20" t="n">
-        <v>921.1797056442688</v>
+        <v>934.7416517121366</v>
       </c>
       <c r="E20" t="n">
-        <v>696.1363698223529</v>
+        <v>709.6983158902207</v>
       </c>
       <c r="F20" t="n">
-        <v>445.8953818090737</v>
+        <v>459.4573278769415</v>
       </c>
       <c r="G20" t="n">
-        <v>189.945121648102</v>
+        <v>203.5070677159692</v>
       </c>
       <c r="H20" t="n">
         <v>50.04963344186411</v>
@@ -5750,28 +5750,28 @@
         <v>50.04963344186411</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3482716363055</v>
+        <v>271.3482716363054</v>
       </c>
       <c r="K20" t="n">
-        <v>723.7623687834526</v>
+        <v>723.7623687834524</v>
       </c>
       <c r="L20" t="n">
-        <v>978.8426139303118</v>
+        <v>923.8140866227802</v>
       </c>
       <c r="M20" t="n">
-        <v>1233.108133310031</v>
+        <v>1178.079606002499</v>
       </c>
       <c r="N20" t="n">
-        <v>1496.101742998562</v>
+        <v>1441.073215691031</v>
       </c>
       <c r="O20" t="n">
-        <v>1731.103889759231</v>
+        <v>1706.932699903005</v>
       </c>
       <c r="P20" t="n">
-        <v>2215.752505283454</v>
+        <v>2191.581315427228</v>
       </c>
       <c r="Q20" t="n">
-        <v>2502.481672093205</v>
+        <v>2478.310482236978</v>
       </c>
       <c r="R20" t="n">
         <v>2502.481672093205</v>
@@ -5783,19 +5783,19 @@
         <v>2450.14535476425</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.22997667183</v>
+        <v>2357.229976671831</v>
       </c>
       <c r="V20" t="n">
-        <v>2186.912006104588</v>
+        <v>2200.473952172456</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.888267610802</v>
+        <v>2008.45021367867</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.167426126051</v>
+        <v>1795.729372193919</v>
       </c>
       <c r="Y20" t="n">
-        <v>1552.773010926567</v>
+        <v>1566.334956994435</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.3276410965187</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C21" t="n">
-        <v>740.8746118153917</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D21" t="n">
-        <v>591.9402021541405</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E21" t="n">
-        <v>432.702747148685</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F21" t="n">
-        <v>286.16818917557</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9368536359429</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H21" t="n">
-        <v>50.04963344186411</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I21" t="n">
         <v>50.04963344186411</v>
@@ -5832,19 +5832,19 @@
         <v>188.160206620026</v>
       </c>
       <c r="K21" t="n">
-        <v>550.834017224757</v>
+        <v>540.778175572366</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.898108597736</v>
+        <v>1089.842266945345</v>
       </c>
       <c r="M21" t="n">
-        <v>1331.561214077709</v>
+        <v>1321.505372425318</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.764397540399</v>
+        <v>1573.708555888008</v>
       </c>
       <c r="O21" t="n">
-        <v>1792.261243318799</v>
+        <v>1782.205401666408</v>
       </c>
       <c r="P21" t="n">
         <v>2245.487576520453</v>
@@ -5856,25 +5856,25 @@
         <v>2494.412049266858</v>
       </c>
       <c r="S21" t="n">
-        <v>2412.811807821049</v>
+        <v>2451.484263541102</v>
       </c>
       <c r="T21" t="n">
-        <v>2216.669209660776</v>
+        <v>2255.341665380829</v>
       </c>
       <c r="U21" t="n">
-        <v>1988.544242047018</v>
+        <v>2027.216697767071</v>
       </c>
       <c r="V21" t="n">
-        <v>1753.392133815275</v>
+        <v>1792.064589535328</v>
       </c>
       <c r="W21" t="n">
-        <v>1499.154777087073</v>
+        <v>1537.827232807127</v>
       </c>
       <c r="X21" t="n">
-        <v>1291.303276881541</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y21" t="n">
-        <v>1083.542978116587</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.1866240799586</v>
+        <v>441.1866240799584</v>
       </c>
       <c r="C22" t="n">
-        <v>432.9953579283801</v>
+        <v>272.2504411520515</v>
       </c>
       <c r="D22" t="n">
-        <v>282.8787185160444</v>
+        <v>122.1338017397158</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8787185160444</v>
+        <v>63.15913347262018</v>
       </c>
       <c r="F22" t="n">
-        <v>135.988771018134</v>
+        <v>63.15913347262018</v>
       </c>
       <c r="G22" t="n">
-        <v>50.04963344186411</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="H22" t="n">
-        <v>50.04963344186411</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="I22" t="n">
-        <v>50.04963344186411</v>
+        <v>55.47331425349365</v>
       </c>
       <c r="J22" t="n">
         <v>50.04963344186411</v>
@@ -5914,16 +5914,16 @@
         <v>171.1510606889163</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059858</v>
+        <v>381.6456284059857</v>
       </c>
       <c r="M22" t="n">
-        <v>613.9717596419546</v>
+        <v>613.9717596419545</v>
       </c>
       <c r="N22" t="n">
-        <v>846.2083111734212</v>
+        <v>846.208311173421</v>
       </c>
       <c r="O22" t="n">
-        <v>1044.700059573337</v>
+        <v>1044.700059573336</v>
       </c>
       <c r="P22" t="n">
         <v>1191.023358609729</v>
@@ -5935,25 +5935,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S22" t="n">
-        <v>1165.268677934206</v>
+        <v>1165.268677934205</v>
       </c>
       <c r="T22" t="n">
         <v>1101.136863789317</v>
       </c>
       <c r="U22" t="n">
-        <v>972.7392100892797</v>
+        <v>972.7392100892795</v>
       </c>
       <c r="V22" t="n">
-        <v>878.7996386597213</v>
+        <v>878.799638659721</v>
       </c>
       <c r="W22" t="n">
-        <v>589.3824686227606</v>
+        <v>750.1273853990888</v>
       </c>
       <c r="X22" t="n">
-        <v>522.1378345010717</v>
+        <v>682.8827512773998</v>
       </c>
       <c r="Y22" t="n">
-        <v>462.0901721338699</v>
+        <v>622.8350889101981</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>50.32640785141243</v>
       </c>
       <c r="J23" t="n">
-        <v>271.6250460458538</v>
+        <v>271.6250460458537</v>
       </c>
       <c r="K23" t="n">
-        <v>724.0391431930009</v>
+        <v>403.1351847475476</v>
       </c>
       <c r="L23" t="n">
-        <v>1311.262055497495</v>
+        <v>603.1869025868755</v>
       </c>
       <c r="M23" t="n">
-        <v>1565.527574877214</v>
+        <v>1222.77566393122</v>
       </c>
       <c r="N23" t="n">
-        <v>1828.521184565746</v>
+        <v>1485.769273619752</v>
       </c>
       <c r="O23" t="n">
-        <v>2063.523331326415</v>
+        <v>1720.771420380421</v>
       </c>
       <c r="P23" t="n">
-        <v>2229.59122576087</v>
+        <v>2205.420035904644</v>
       </c>
       <c r="Q23" t="n">
-        <v>2516.320392570621</v>
+        <v>2492.149202714394</v>
       </c>
       <c r="R23" t="n">
         <v>2516.320392570621</v>
@@ -6051,46 +6051,46 @@
         <v>630.8894322837423</v>
       </c>
       <c r="E24" t="n">
-        <v>471.6519772782867</v>
+        <v>471.6519772782868</v>
       </c>
       <c r="F24" t="n">
-        <v>325.1174193051717</v>
+        <v>325.1174193051718</v>
       </c>
       <c r="G24" t="n">
         <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>88.9988635714659</v>
+        <v>88.99886357146592</v>
       </c>
       <c r="I24" t="n">
         <v>50.32640785141243</v>
       </c>
       <c r="J24" t="n">
-        <v>188.4369810295743</v>
+        <v>63.60685604256955</v>
       </c>
       <c r="K24" t="n">
-        <v>293.3674922484772</v>
+        <v>426.2806666473004</v>
       </c>
       <c r="L24" t="n">
-        <v>475.2996417710318</v>
+        <v>975.3447580202795</v>
       </c>
       <c r="M24" t="n">
-        <v>1098.088938932261</v>
+        <v>1207.007863500252</v>
       </c>
       <c r="N24" t="n">
-        <v>1720.878236093489</v>
+        <v>1459.211046962943</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.298777955851</v>
+        <v>2057.631588825304</v>
       </c>
       <c r="P24" t="n">
-        <v>2467.302811856359</v>
+        <v>2259.326296997869</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.320392570621</v>
       </c>
       <c r="R24" t="n">
-        <v>2516.320392570621</v>
+        <v>2508.250769744273</v>
       </c>
       <c r="S24" t="n">
         <v>2451.761037950651</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.463398489507</v>
+        <v>602.2083152658352</v>
       </c>
       <c r="C25" t="n">
-        <v>433.2721323379284</v>
+        <v>433.2721323379283</v>
       </c>
       <c r="D25" t="n">
-        <v>433.2721323379284</v>
+        <v>283.1554929255925</v>
       </c>
       <c r="E25" t="n">
-        <v>433.2721323379284</v>
+        <v>135.2423993431994</v>
       </c>
       <c r="F25" t="n">
-        <v>286.3821848400181</v>
+        <v>135.2423993431994</v>
       </c>
       <c r="G25" t="n">
-        <v>117.9514488445632</v>
+        <v>55.75008866304197</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9514488445632</v>
+        <v>55.75008866304197</v>
       </c>
       <c r="I25" t="n">
-        <v>50.32640785141243</v>
+        <v>55.75008866304197</v>
       </c>
       <c r="J25" t="n">
         <v>50.32640785141243</v>
@@ -6151,19 +6151,19 @@
         <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
-        <v>381.9224028155341</v>
+        <v>381.922402815534</v>
       </c>
       <c r="M25" t="n">
-        <v>614.2485340515029</v>
+        <v>614.2485340515027</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829695</v>
+        <v>846.4850855829693</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
       </c>
       <c r="P25" t="n">
-        <v>1191.300133019278</v>
+        <v>1191.300133019277</v>
       </c>
       <c r="Q25" t="n">
         <v>1209.171720582629</v>
@@ -6175,22 +6175,22 @@
         <v>1165.545452343754</v>
       </c>
       <c r="T25" t="n">
-        <v>1101.413638198866</v>
+        <v>1101.413638198865</v>
       </c>
       <c r="U25" t="n">
-        <v>973.0159844988281</v>
+        <v>973.0159844988278</v>
       </c>
       <c r="V25" t="n">
-        <v>879.0764130692696</v>
+        <v>879.0764130692694</v>
       </c>
       <c r="W25" t="n">
-        <v>750.4041598086374</v>
+        <v>750.4041598086371</v>
       </c>
       <c r="X25" t="n">
-        <v>683.1595256869484</v>
+        <v>683.1595256869482</v>
       </c>
       <c r="Y25" t="n">
-        <v>623.1118633197467</v>
+        <v>623.1118633197465</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239835</v>
+        <v>998.459175423983</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734032</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113443</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8071413586977</v>
+        <v>294.8071413586975</v>
       </c>
       <c r="K26" t="n">
-        <v>426.3172800603917</v>
+        <v>747.2212385058447</v>
       </c>
       <c r="L26" t="n">
-        <v>1039.853600304666</v>
+        <v>1360.757558750119</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.137517842289</v>
+        <v>1948.906974405548</v>
       </c>
       <c r="N26" t="n">
-        <v>2435.104582698685</v>
+        <v>2644.874039261944</v>
       </c>
       <c r="O26" t="n">
-        <v>3047.098908909471</v>
+        <v>2879.876186022612</v>
       </c>
       <c r="P26" t="n">
-        <v>3531.747524433694</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356588</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R26" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212813</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576478</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T26" t="n">
-        <v>3475.820285859359</v>
+        <v>3475.820285859356</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423369</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541419</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y26" t="n">
         <v>2176.585650080855</v>
@@ -6300,22 +6300,22 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J27" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471491</v>
+        <v>574.292886947149</v>
       </c>
       <c r="L27" t="n">
         <v>1123.356978320128</v>
       </c>
       <c r="M27" t="n">
-        <v>1355.020083800101</v>
+        <v>1447.60143416294</v>
       </c>
       <c r="N27" t="n">
-        <v>1607.223267262792</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O27" t="n">
         <v>1908.30146340403</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956792</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559367</v>
+        <v>476.5286396559366</v>
       </c>
       <c r="D28" t="n">
         <v>406.7844586317651</v>
@@ -6373,25 +6373,25 @@
         <v>272.72633432779</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204993</v>
+        <v>184.6680567204992</v>
       </c>
       <c r="H28" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J28" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803096</v>
+        <v>346.8402737803098</v>
       </c>
       <c r="L28" t="n">
         <v>636.1078879636189</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658274</v>
       </c>
       <c r="N28" t="n">
         <v>1258.216663663534</v>
@@ -6418,16 +6418,16 @@
         <v>1337.762325369493</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029741</v>
+        <v>954.4055839029738</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931209</v>
+        <v>806.7884913931207</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.368370637755</v>
+        <v>666.3683706377548</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6440,67 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C29" t="n">
-        <v>1581.768209852649</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D29" t="n">
         <v>1303.874969634063</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239834</v>
+        <v>998.459175423983</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734032</v>
       </c>
       <c r="H29" t="n">
         <v>97.69311781113441</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J29" t="n">
-        <v>294.8071413586976</v>
+        <v>294.8071413586975</v>
       </c>
       <c r="K29" t="n">
-        <v>747.2212385058448</v>
+        <v>747.2212385058447</v>
       </c>
       <c r="L29" t="n">
-        <v>1317.649275575711</v>
+        <v>1360.757558750119</v>
       </c>
       <c r="M29" t="n">
-        <v>1571.91479495543</v>
+        <v>2004.888250123294</v>
       </c>
       <c r="N29" t="n">
         <v>2267.881859811826</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.876186022613</v>
+        <v>2879.876186022612</v>
       </c>
       <c r="P29" t="n">
         <v>3364.524801546836</v>
       </c>
       <c r="Q29" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R29" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212813</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U29" t="n">
         <v>3302.532449378774</v>
       </c>
       <c r="V29" t="n">
-        <v>3051.842020423367</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.445823541417</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X29" t="n">
         <v>2486.352523668502</v>
@@ -6537,22 +6537,22 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J30" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K30" t="n">
-        <v>574.2928869471491</v>
+        <v>574.292886947149</v>
       </c>
       <c r="L30" t="n">
         <v>1123.356978320128</v>
       </c>
       <c r="M30" t="n">
-        <v>1355.020083800101</v>
+        <v>1447.60143416294</v>
       </c>
       <c r="N30" t="n">
-        <v>1607.223267262792</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O30" t="n">
         <v>1908.30146340403</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956792</v>
+        <v>565.0923641956794</v>
       </c>
       <c r="C31" t="n">
         <v>476.5286396559366</v>
       </c>
       <c r="D31" t="n">
-        <v>406.784458631765</v>
+        <v>406.7844586317651</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375361</v>
+        <v>339.2438234375362</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277901</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204992</v>
+        <v>184.6680567204994</v>
       </c>
       <c r="H31" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J31" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803097</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636191</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658277</v>
+        <v>947.2070656658275</v>
       </c>
       <c r="N31" t="n">
         <v>1258.216663663534</v>
@@ -6646,7 +6646,7 @@
         <v>1815.035436617787</v>
       </c>
       <c r="S31" t="n">
-        <v>1691.036709990747</v>
+        <v>1691.036709990748</v>
       </c>
       <c r="T31" t="n">
         <v>1546.532437457695</v>
@@ -6655,16 +6655,16 @@
         <v>1337.762325369493</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551771</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029736</v>
+        <v>954.4055839029742</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931205</v>
+        <v>806.7884913931211</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377548</v>
+        <v>666.3683706377549</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404896</v>
+        <v>1870.358268404897</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.768209852648</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D32" t="n">
-        <v>1303.874969634062</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239827</v>
+        <v>998.4591754239834</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225399</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734035</v>
+        <v>331.5230104734037</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113439</v>
+        <v>97.69311781113433</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J32" t="n">
-        <v>294.8071413586976</v>
+        <v>294.8071413586975</v>
       </c>
       <c r="K32" t="n">
-        <v>747.2212385058448</v>
+        <v>747.2212385058447</v>
       </c>
       <c r="L32" t="n">
-        <v>1360.757558750119</v>
+        <v>1249.623056867925</v>
       </c>
       <c r="M32" t="n">
-        <v>1615.023078129838</v>
+        <v>1948.906974405548</v>
       </c>
       <c r="N32" t="n">
-        <v>2267.881859811826</v>
+        <v>2644.874039261944</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.876186022613</v>
+        <v>2879.876186022612</v>
       </c>
       <c r="P32" t="n">
         <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R32" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212813</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U32" t="n">
         <v>3302.532449378774</v>
       </c>
       <c r="V32" t="n">
-        <v>3051.842020423367</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W32" t="n">
-        <v>2779.445823541417</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668501</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y32" t="n">
-        <v>2176.585650080854</v>
+        <v>2176.585650080855</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J33" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K33" t="n">
-        <v>574.2928869471491</v>
+        <v>574.292886947149</v>
       </c>
       <c r="L33" t="n">
-        <v>1123.356978320128</v>
+        <v>1070.168456524005</v>
       </c>
       <c r="M33" t="n">
-        <v>1447.60143416294</v>
+        <v>1762.879575116478</v>
       </c>
       <c r="N33" t="n">
-        <v>1699.804617625631</v>
+        <v>2015.082758579169</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.30146340403</v>
+        <v>2223.579604357568</v>
       </c>
       <c r="P33" t="n">
         <v>2371.583638258076</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956792</v>
+        <v>565.0923641956787</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559365</v>
+        <v>476.528639655936</v>
       </c>
       <c r="D34" t="n">
-        <v>406.784458631765</v>
+        <v>406.7844586317646</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375361</v>
+        <v>339.2438234375358</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277897</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204992</v>
+        <v>184.6680567204991</v>
       </c>
       <c r="H34" t="n">
-        <v>112.3516411989754</v>
+        <v>112.3516411989753</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J34" t="n">
         <v>146.9658000670179</v>
@@ -6874,34 +6874,34 @@
         <v>1535.481458529689</v>
       </c>
       <c r="P34" t="n">
-        <v>1760.577804032321</v>
+        <v>1760.577804032322</v>
       </c>
       <c r="Q34" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.22243806191</v>
       </c>
       <c r="R34" t="n">
-        <v>1815.035436617787</v>
+        <v>1815.035436617785</v>
       </c>
       <c r="S34" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990746</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457693</v>
       </c>
       <c r="U34" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369492</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551769</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029738</v>
+        <v>954.4055839029729</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931199</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377548</v>
+        <v>666.3683706377541</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.190339908248</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.496377992338</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100892</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363464</v>
+        <v>753.9795368363468</v>
       </c>
       <c r="F35" t="n">
-        <v>490.2621870712401</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I35" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J35" t="n">
-        <v>107.7947583065977</v>
+        <v>275.2004073269507</v>
       </c>
       <c r="K35" t="n">
-        <v>239.3048970082917</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L35" t="n">
-        <v>852.8412172525657</v>
+        <v>1341.150824718371</v>
       </c>
       <c r="M35" t="n">
-        <v>1519.875610267369</v>
+        <v>1720.124449075836</v>
       </c>
       <c r="N35" t="n">
-        <v>2186.910003282173</v>
+        <v>1983.118058764368</v>
       </c>
       <c r="O35" t="n">
-        <v>2452.483236134568</v>
+        <v>2218.120205525036</v>
       </c>
       <c r="P35" t="n">
-        <v>2618.551130569023</v>
+        <v>2384.188099959491</v>
       </c>
       <c r="Q35" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769242</v>
       </c>
       <c r="R35" t="n">
         <v>2695.088456625469</v>
@@ -6965,22 +6965,22 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544686</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.88403770044</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V35" t="n">
         <v>2339.089705381371</v>
       </c>
       <c r="W35" t="n">
-        <v>2133.589605135758</v>
+        <v>2133.589605135759</v>
       </c>
       <c r="X35" t="n">
-        <v>1907.392401899179</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.52162494787</v>
       </c>
     </row>
     <row r="36">
@@ -7005,31 +7005,31 @@
         <v>328.6927805862687</v>
       </c>
       <c r="G36" t="n">
-        <v>191.4614450466416</v>
+        <v>191.4614450466417</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256285</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I36" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J36" t="n">
-        <v>192.0123423106713</v>
+        <v>192.0123423106712</v>
       </c>
       <c r="K36" t="n">
-        <v>554.6861529154022</v>
+        <v>292.8655682729493</v>
       </c>
       <c r="L36" t="n">
-        <v>1103.750244288382</v>
+        <v>474.7977177955038</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.994700131193</v>
+        <v>1141.832110810307</v>
       </c>
       <c r="N36" t="n">
-        <v>1680.197883593883</v>
+        <v>1808.866503825111</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.694729372283</v>
+        <v>2017.36334960351</v>
       </c>
       <c r="P36" t="n">
         <v>2351.976904226328</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>497.972782532316</v>
+        <v>252.9130748622828</v>
       </c>
       <c r="C37" t="n">
-        <v>476.3051546289105</v>
+        <v>231.2454469588772</v>
       </c>
       <c r="D37" t="n">
-        <v>473.4570702410761</v>
+        <v>81.12880754654147</v>
       </c>
       <c r="E37" t="n">
-        <v>325.543976658683</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="F37" t="n">
-        <v>178.6540291607726</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="G37" t="n">
-        <v>59.3220880176961</v>
+        <v>59.32208801769611</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I37" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J37" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K37" t="n">
-        <v>175.0031963795616</v>
+        <v>175.0031963795615</v>
       </c>
       <c r="L37" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325999</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640665</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P37" t="n">
-        <v>1194.875494300375</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q37" t="n">
         <v>1212.747081863726</v>
@@ -7123,22 +7123,22 @@
         <v>1155.644451873024</v>
       </c>
       <c r="T37" t="n">
-        <v>1078.036275976309</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U37" t="n">
-        <v>936.162260524444</v>
+        <v>838.3711078789122</v>
       </c>
       <c r="V37" t="n">
-        <v>828.7463273430585</v>
+        <v>730.9551746975267</v>
       </c>
       <c r="W37" t="n">
-        <v>686.5977123305993</v>
+        <v>588.8065596850673</v>
       </c>
       <c r="X37" t="n">
-        <v>605.8767164570833</v>
+        <v>360.81700878705</v>
       </c>
       <c r="Y37" t="n">
-        <v>532.3526923380545</v>
+        <v>287.2929846680212</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.19033990825</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.49637799234</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100904</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363475</v>
+        <v>753.9795368363471</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712413</v>
+        <v>490.262187071241</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
@@ -7172,28 +7172,28 @@
         <v>53.9017691325094</v>
       </c>
       <c r="J38" t="n">
-        <v>275.2004073269508</v>
+        <v>275.2004073269507</v>
       </c>
       <c r="K38" t="n">
-        <v>406.7105460286448</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L38" t="n">
-        <v>606.7622638679728</v>
+        <v>1061.818146369846</v>
       </c>
       <c r="M38" t="n">
-        <v>861.0277832476916</v>
+        <v>1316.083665749565</v>
       </c>
       <c r="N38" t="n">
-        <v>1528.062176262495</v>
+        <v>1983.118058764368</v>
       </c>
       <c r="O38" t="n">
-        <v>1923.710674291496</v>
+        <v>2218.120205525037</v>
       </c>
       <c r="P38" t="n">
-        <v>2408.359289815719</v>
+        <v>2384.188099959492</v>
       </c>
       <c r="Q38" t="n">
-        <v>2695.08845662547</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R38" t="n">
         <v>2695.08845662547</v>
@@ -7202,22 +7202,22 @@
         <v>2695.08845662547</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W38" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X38" t="n">
-        <v>1907.392401899181</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947871</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7245,7 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256289</v>
       </c>
       <c r="I39" t="n">
         <v>53.9017691325094</v>
@@ -7254,16 +7254,16 @@
         <v>192.0123423106713</v>
       </c>
       <c r="K39" t="n">
-        <v>554.6861529154022</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L39" t="n">
-        <v>1103.750244288382</v>
+        <v>1103.750244288381</v>
       </c>
       <c r="M39" t="n">
-        <v>1335.413349768354</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.616533231045</v>
+        <v>1680.197883593884</v>
       </c>
       <c r="O39" t="n">
         <v>1888.694729372283</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>350.7042275078146</v>
+        <v>258.3367556739124</v>
       </c>
       <c r="C40" t="n">
-        <v>329.036599604409</v>
+        <v>236.6691277705068</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1885152165747</v>
+        <v>233.8210433826724</v>
       </c>
       <c r="E40" t="n">
-        <v>325.5439766586829</v>
+        <v>233.1765048247806</v>
       </c>
       <c r="F40" t="n">
-        <v>325.5439766586829</v>
+        <v>233.1765048247806</v>
       </c>
       <c r="G40" t="n">
-        <v>157.113240663228</v>
+        <v>212.014323853827</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9017691325094</v>
+        <v>59.32544994413895</v>
       </c>
       <c r="I40" t="n">
-        <v>53.9017691325094</v>
+        <v>59.32544994413895</v>
       </c>
       <c r="J40" t="n">
         <v>53.9017691325094</v>
@@ -7336,46 +7336,46 @@
         <v>175.0031963795616</v>
       </c>
       <c r="L40" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325999</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640665</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P40" t="n">
-        <v>1194.875494300375</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q40" t="n">
         <v>1212.747081863726</v>
       </c>
       <c r="R40" t="n">
-        <v>1212.747081863726</v>
+        <v>1090.187622031436</v>
       </c>
       <c r="S40" t="n">
-        <v>1155.644451873024</v>
+        <v>916.0084250146203</v>
       </c>
       <c r="T40" t="n">
-        <v>1078.036275976309</v>
+        <v>838.4002491179049</v>
       </c>
       <c r="U40" t="n">
-        <v>788.8937054999427</v>
+        <v>696.5262336660403</v>
       </c>
       <c r="V40" t="n">
-        <v>681.4777723185572</v>
+        <v>589.1103004846548</v>
       </c>
       <c r="W40" t="n">
-        <v>539.3291573060978</v>
+        <v>446.9616854721955</v>
       </c>
       <c r="X40" t="n">
-        <v>458.6081614325818</v>
+        <v>366.2406895986795</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.084137313553</v>
+        <v>292.7166654796507</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.190339908248</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.496377992338</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100885</v>
+        <v>992.4992344100895</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363461</v>
+        <v>753.9795368363466</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712401</v>
+        <v>490.2621870712403</v>
       </c>
       <c r="G41" t="n">
         <v>220.8355651584416</v>
@@ -7409,28 +7409,28 @@
         <v>53.90176913250938</v>
       </c>
       <c r="J41" t="n">
-        <v>107.7947583065976</v>
+        <v>275.2004073269507</v>
       </c>
       <c r="K41" t="n">
-        <v>239.3048970082914</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L41" t="n">
-        <v>852.8412172525652</v>
+        <v>927.6662223134256</v>
       </c>
       <c r="M41" t="n">
-        <v>1519.875610267369</v>
+        <v>1181.931741693144</v>
       </c>
       <c r="N41" t="n">
-        <v>2186.910003282173</v>
+        <v>1444.925351381676</v>
       </c>
       <c r="O41" t="n">
-        <v>2421.912150042841</v>
+        <v>1899.539484435268</v>
       </c>
       <c r="P41" t="n">
-        <v>2587.980044477296</v>
+        <v>2384.188099959491</v>
       </c>
       <c r="Q41" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769242</v>
       </c>
       <c r="R41" t="n">
         <v>2695.088456625469</v>
@@ -7439,19 +7439,19 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T41" t="n">
-        <v>2629.275777544686</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U41" t="n">
-        <v>2522.88403770044</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V41" t="n">
         <v>2339.089705381371</v>
       </c>
       <c r="W41" t="n">
-        <v>2133.589605135758</v>
+        <v>2133.589605135759</v>
       </c>
       <c r="X41" t="n">
-        <v>1907.392401899179</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y41" t="n">
         <v>1664.521624947869</v>
@@ -7497,7 +7497,7 @@
         <v>1103.750244288381</v>
       </c>
       <c r="M42" t="n">
-        <v>1335.413349768354</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N42" t="n">
         <v>1680.197883593884</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>252.9130748622828</v>
+        <v>105.6445198377814</v>
       </c>
       <c r="C43" t="n">
-        <v>231.2454469588772</v>
+        <v>83.97689193437586</v>
       </c>
       <c r="D43" t="n">
         <v>81.12880754654147</v>
@@ -7576,10 +7576,10 @@
         <v>385.4977640966309</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325996</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640661</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7591,28 +7591,28 @@
         <v>1212.747081863726</v>
       </c>
       <c r="R43" t="n">
-        <v>1212.747081863726</v>
+        <v>1090.187622031436</v>
       </c>
       <c r="S43" t="n">
-        <v>1155.644451873024</v>
+        <v>910.5847442029908</v>
       </c>
       <c r="T43" t="n">
-        <v>1078.036275976308</v>
+        <v>832.9765683062753</v>
       </c>
       <c r="U43" t="n">
-        <v>838.3711078789121</v>
+        <v>543.8339978299094</v>
       </c>
       <c r="V43" t="n">
-        <v>583.6866196730252</v>
+        <v>436.4180646485239</v>
       </c>
       <c r="W43" t="n">
-        <v>441.538004660566</v>
+        <v>294.2694496360646</v>
       </c>
       <c r="X43" t="n">
-        <v>360.81700878705</v>
+        <v>213.5484537625486</v>
       </c>
       <c r="Y43" t="n">
-        <v>287.2929846680212</v>
+        <v>140.0244296435198</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.190339908248</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.496377992338</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100899</v>
+        <v>992.499234410089</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363464</v>
       </c>
       <c r="F44" t="n">
-        <v>490.2621870712405</v>
+        <v>490.2621870712401</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
@@ -7646,19 +7646,19 @@
         <v>53.90176913250938</v>
       </c>
       <c r="J44" t="n">
-        <v>275.2004073269506</v>
+        <v>117.8202141697568</v>
       </c>
       <c r="K44" t="n">
-        <v>727.6145044740977</v>
+        <v>570.2343113169038</v>
       </c>
       <c r="L44" t="n">
-        <v>1147.27820860635</v>
+        <v>770.2860291562316</v>
       </c>
       <c r="M44" t="n">
-        <v>1401.543727986068</v>
+        <v>1024.55154853595</v>
       </c>
       <c r="N44" t="n">
-        <v>1664.5373376746</v>
+        <v>1287.545158224482</v>
       </c>
       <c r="O44" t="n">
         <v>1899.539484435268</v>
@@ -7679,19 +7679,19 @@
         <v>2629.275777544687</v>
       </c>
       <c r="U44" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.88403770044</v>
       </c>
       <c r="V44" t="n">
         <v>2339.089705381371</v>
       </c>
       <c r="W44" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.589605135758</v>
       </c>
       <c r="X44" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899179</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.90176913250938</v>
       </c>
       <c r="J45" t="n">
-        <v>67.18221732366646</v>
+        <v>192.0123423106712</v>
       </c>
       <c r="K45" t="n">
-        <v>168.0354432859445</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L45" t="n">
-        <v>479.4600572923432</v>
+        <v>1103.750244288381</v>
       </c>
       <c r="M45" t="n">
-        <v>1146.494450307147</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N45" t="n">
-        <v>1813.52884332195</v>
+        <v>1680.197883593884</v>
       </c>
       <c r="O45" t="n">
-        <v>2411.949385184312</v>
+        <v>1888.694729372283</v>
       </c>
       <c r="P45" t="n">
-        <v>2559.953419084819</v>
+        <v>2351.976904226328</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.970999799081</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>497.9727825323156</v>
+        <v>203.4356724833132</v>
       </c>
       <c r="C46" t="n">
-        <v>329.0365996044087</v>
+        <v>181.7680445799076</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1885152165743</v>
+        <v>178.9199601920732</v>
       </c>
       <c r="E46" t="n">
-        <v>178.2754216341812</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="F46" t="n">
         <v>80.48426898864969</v>
@@ -7813,10 +7813,10 @@
         <v>385.4977640966309</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325996</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640661</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7837,19 +7837,19 @@
         <v>1078.036275976308</v>
       </c>
       <c r="U46" t="n">
-        <v>936.1622605244436</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V46" t="n">
-        <v>828.7463273430581</v>
+        <v>828.7463273430583</v>
       </c>
       <c r="W46" t="n">
-        <v>686.5977123305988</v>
+        <v>686.5977123305991</v>
       </c>
       <c r="X46" t="n">
-        <v>605.8767164570828</v>
+        <v>458.6081614325817</v>
       </c>
       <c r="Y46" t="n">
-        <v>532.352692338054</v>
+        <v>237.8155822890516</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>26.05565968592776</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>195.1522748580015</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>200.2783746585583</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.672866058471044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>13.47177913576193</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>31.16902772858992</v>
+        <v>153.2777910081584</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>368.7865600639896</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.1239263136874</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>360.6829294929633</v>
       </c>
       <c r="M15" t="n">
-        <v>391.617281174844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>370.8697276569472</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>165.6795130985194</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>352.9677359000744</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>123.4299301132155</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>391.617281174844</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>370.8697276569472</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>308.3053528294413</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>55.58437101770824</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>31.16902772859166</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>254.3078212020828</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>308.3053528294409</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>391.0820146112792</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>369.0133757218448</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>4.118469956186644</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>395.0769612941979</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>374.3294077763012</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>54.23300431520892</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>337.2564608845563</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.40314936004893</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>93.5165155180199</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>93.51651551801928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10115,13 +10115,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>374.1174941722608</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>393.8032040337952</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>93.5165155180199</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>93.51651551801928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>305.4041419421742</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>393.8032040337945</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>317.1145657114162</v>
       </c>
       <c r="M33" t="n">
-        <v>93.51651551801933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>416.9382561970552</v>
+        <v>125.9677828058038</v>
       </c>
       <c r="N35" t="n">
-        <v>408.1220033598703</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>30.87988494113822</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>93.51651551801888</v>
+        <v>439.76897730791</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>419.0214237900133</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>188.4944653760713</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>135.5069939963844</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>408.1220033598707</v>
+        <v>408.1220033598709</v>
       </c>
       <c r="O38" t="n">
-        <v>162.2690416851836</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>93.51651551801882</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>416.9382561970556</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>408.1220033598707</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>221.8302891847717</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>30.87988494113951</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N42" t="n">
-        <v>93.51651551801976</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>10.12672309410016</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>221.8302891847721</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>130.8004691756003</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>439.76897730791</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N45" t="n">
-        <v>419.0214237900133</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.100140638398986</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679792</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T11" t="n">
-        <v>15.93827946788196</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
         <v>171.5549581157774</v>
@@ -23318,13 +23318,13 @@
         <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>45.73107928888539</v>
+        <v>323.866236682592</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040934</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>171.5549581157774</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658524</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>13.42632660718821</v>
+        <v>13.42632660718779</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42632660718854</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>13.42632660718764</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1263723.150441469</v>
+        <v>1263723.15044147</v>
       </c>
     </row>
     <row r="7">
@@ -26320,10 +26320,10 @@
         <v>102409.5423396298</v>
       </c>
       <c r="E2" t="n">
-        <v>84720.01533818892</v>
+        <v>84720.01533818894</v>
       </c>
       <c r="F2" t="n">
-        <v>91307.22301921461</v>
+        <v>91307.22301921455</v>
       </c>
       <c r="G2" t="n">
         <v>102496.6292832939</v>
@@ -26387,19 +26387,19 @@
         <v>920.0015970187211</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542154</v>
+        <v>75818.20182542142</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.98704342604</v>
+        <v>63654.9870434261</v>
       </c>
       <c r="M3" t="n">
         <v>105300.814810854</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583653</v>
+        <v>41782.4283158365</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,31 +26427,31 @@
         <v>138905.8300766321</v>
       </c>
       <c r="F4" t="n">
-        <v>160091.4048491452</v>
+        <v>160091.4048491453</v>
       </c>
       <c r="G4" t="n">
-        <v>210988.9811331991</v>
+        <v>210988.9811331992</v>
       </c>
       <c r="H4" t="n">
-        <v>210988.9811331991</v>
+        <v>210988.9811331992</v>
       </c>
       <c r="I4" t="n">
-        <v>211418.6354537099</v>
+        <v>211418.63545371</v>
       </c>
       <c r="J4" t="n">
-        <v>201346.1402347315</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="K4" t="n">
-        <v>201346.1402347315</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="L4" t="n">
-        <v>201346.1402347315</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="M4" t="n">
-        <v>209486.944619368</v>
+        <v>209486.9446193681</v>
       </c>
       <c r="N4" t="n">
-        <v>209486.944619368</v>
+        <v>209486.9446193681</v>
       </c>
       <c r="O4" t="n">
         <v>209486.9446193681</v>
@@ -26479,7 +26479,7 @@
         <v>49400.51786652592</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882798</v>
+        <v>59772.47212882797</v>
       </c>
       <c r="G5" t="n">
         <v>66461.7360110202</v>
@@ -26491,13 +26491,13 @@
         <v>66672.08456227693</v>
       </c>
       <c r="J5" t="n">
-        <v>77601.21311784604</v>
+        <v>77601.21311784601</v>
       </c>
       <c r="K5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784601</v>
       </c>
       <c r="L5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784601</v>
       </c>
       <c r="M5" t="n">
         <v>68267.74432235741</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372867.3076561906</v>
+        <v>-372871.7212340587</v>
       </c>
       <c r="C6" t="n">
-        <v>-372867.3076561907</v>
+        <v>-372871.7212340588</v>
       </c>
       <c r="D6" t="n">
-        <v>-372867.3076561906</v>
+        <v>-372871.7212340588</v>
       </c>
       <c r="E6" t="n">
-        <v>-857579.5592171692</v>
+        <v>-857937.7633350661</v>
       </c>
       <c r="F6" t="n">
-        <v>-177435.511967975</v>
+        <v>-177661.9719322516</v>
       </c>
       <c r="G6" t="n">
-        <v>-238609.0749043514</v>
+        <v>-238611.7467433464</v>
       </c>
       <c r="H6" t="n">
-        <v>-174954.0878609254</v>
+        <v>-174956.7596999203</v>
       </c>
       <c r="I6" t="n">
-        <v>-176380.5003799702</v>
+        <v>-176380.5003799703</v>
       </c>
       <c r="J6" t="n">
-        <v>-252135.3339449637</v>
+        <v>-252135.3339449636</v>
       </c>
       <c r="K6" t="n">
         <v>-176317.1321195422</v>
       </c>
       <c r="L6" t="n">
-        <v>-239972.1191629682</v>
+        <v>-239972.1191629684</v>
       </c>
       <c r="M6" t="n">
         <v>-280425.2825195441</v>
       </c>
       <c r="N6" t="n">
-        <v>-216906.8960245266</v>
+        <v>-216906.8960245267</v>
       </c>
       <c r="O6" t="n">
         <v>-175124.4677086902</v>
       </c>
       <c r="P6" t="n">
-        <v>-175124.4677086902</v>
+        <v>-175124.4677086901</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>159.1374676085651</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26747,37 +26747,37 @@
         <v>690.1599463678451</v>
       </c>
       <c r="F3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="G3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="H3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="I3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="K3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="L3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="M3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="N3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="O3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="P3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
     </row>
     <row r="4">
@@ -26811,16 +26811,16 @@
         <v>629.0800981426553</v>
       </c>
       <c r="J4" t="n">
-        <v>918.8562895532037</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="M4" t="n">
-        <v>673.7721141563671</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N4" t="n">
         <v>673.7721141563675</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="M2" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997368</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>3.459680119353948</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105484</v>
+        <v>289.776191410548</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280759</v>
+        <v>209.9448896280762</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983894</v>
+        <v>170.5913529983893</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28169,25 +28169,25 @@
         <v>79.56873380428254</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.248480811746134</v>
+      </c>
+      <c r="H12" t="n">
         <v>79.56873380428254</v>
       </c>
-      <c r="D12" t="n">
-        <v>79.56873380428254</v>
-      </c>
-      <c r="E12" t="n">
-        <v>79.56873380428254</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S12" t="n">
         <v>79.56873380428254</v>
@@ -28232,10 +28232,10 @@
         <v>79.56873380428254</v>
       </c>
       <c r="X12" t="n">
-        <v>47.52313857268331</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="13">
@@ -28412,16 +28412,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>79.56873380428254</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>22.0420862907956</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28524,10 +28524,10 @@
         <v>79.56873380428254</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428215</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="R16" t="n">
         <v>79.56873380428254</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.712472102940126</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>63.32508893222494</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28722,25 +28722,25 @@
         <v>159.1374676085651</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>76.87913362888951</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1619851705912</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
-        <v>70.16051346458215</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>159.1374676085651</v>
@@ -28785,7 +28785,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y19" t="n">
         <v>159.1374676085651</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285294</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32508893222494</v>
+        <v>101.6108200950776</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88.04904106214454</v>
+      </c>
+      <c r="F22" t="n">
+        <v>145.4210480229312</v>
+      </c>
+      <c r="G22" t="n">
         <v>159.1374676085651</v>
-      </c>
-      <c r="C22" t="n">
-        <v>159.1374676085651</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>146.4339626465692</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>81.66668243499311</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -28980,7 +28980,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513223</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X22" t="n">
         <v>159.1374676085651</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084433</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.19556688980481</v>
+        <v>88.1844934878891</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>88.04904106214448</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
       </c>
       <c r="I25" t="n">
-        <v>51.07464987543521</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513223</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428235</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428272</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="C32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="D32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="E32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="G32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="H32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="I32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="T32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="U32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="V32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="W32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="X32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="C34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="D34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="E34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="F34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="G34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="H34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="I34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="K34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="M34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="N34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="O34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="P34" t="n">
-        <v>79.56873380428192</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380427966</v>
       </c>
       <c r="R34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="S34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="T34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="U34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="V34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="W34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="X34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428263</v>
       </c>
     </row>
     <row r="35">
@@ -30147,16 +30147,16 @@
         <v>145.7958694742563</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>145.7958694742563</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>48.60780690385458</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H37" t="n">
         <v>145.7958694742563</v>
@@ -30165,7 +30165,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="U37" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518003</v>
       </c>
       <c r="V37" t="n">
         <v>145.7958694742563</v>
@@ -30207,7 +30207,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="X37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>145.7958694742563</v>
@@ -30393,16 +30393,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H40" t="n">
-        <v>48.98262835517977</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513223</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,16 +30426,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.7958694742563</v>
+        <v>29.89006811840378</v>
       </c>
       <c r="T40" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="V40" t="n">
         <v>145.7958694742563</v>
@@ -30621,7 +30621,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="E43" t="n">
         <v>145.7958694742563</v>
@@ -30639,7 +30639,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,19 +30663,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.3338652339669</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.7958694742563</v>
+        <v>24.52062411489052</v>
       </c>
       <c r="T43" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="U43" t="n">
-        <v>48.98262835518014</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="W43" t="n">
         <v>145.7958694742563</v>
@@ -30855,16 +30855,16 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="D46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>48.98262835517987</v>
       </c>
       <c r="F46" t="n">
-        <v>48.60780690385504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>145.7958694742563</v>
@@ -30876,7 +30876,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S46" t="n">
         <v>145.7958694742563</v>
@@ -30918,10 +30918,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="X46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H14" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I14" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J14" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q14" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R14" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H15" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J15" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K15" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O15" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P15" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R15" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S15" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,16 +32154,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K16" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M16" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N16" t="n">
         <v>190.4502029050811</v>
@@ -32172,22 +32172,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P16" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q16" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S16" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T16" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H17" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I17" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J17" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K17" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M17" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N17" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O17" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P17" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q17" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R17" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T17" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H18" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J18" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K18" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L18" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M18" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O18" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P18" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R18" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S18" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T18" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,16 +32391,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K19" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L19" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M19" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N19" t="n">
         <v>190.4502029050811</v>
@@ -32409,22 +32409,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P19" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q19" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R19" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S19" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T19" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H20" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I20" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J20" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K20" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M20" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N20" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O20" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P20" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R20" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S20" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T20" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H21" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J21" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K21" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L21" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M21" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O21" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P21" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R21" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S21" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T21" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,16 +32628,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K22" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L22" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M22" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N22" t="n">
         <v>190.4502029050811</v>
@@ -32646,22 +32646,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P22" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q22" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R22" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S22" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T22" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H23" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I23" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J23" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K23" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M23" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N23" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O23" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P23" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R23" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T23" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H24" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J24" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K24" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L24" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M24" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O24" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P24" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R24" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S24" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T24" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,16 +32865,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K25" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L25" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M25" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N25" t="n">
         <v>190.4502029050811</v>
@@ -32883,22 +32883,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P25" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q25" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R25" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S25" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T25" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H26" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I26" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O26" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R26" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S26" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T26" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H27" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J27" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K27" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M27" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P27" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R27" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S27" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T27" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,16 +33102,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K28" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L28" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M28" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N28" t="n">
         <v>190.4502029050811</v>
@@ -33120,22 +33120,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P28" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q28" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S28" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T28" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H29" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I29" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J29" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M29" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N29" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P29" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R29" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T29" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H30" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J30" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K30" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O30" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P30" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R30" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S30" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,16 +33339,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K31" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L31" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M31" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N31" t="n">
         <v>190.4502029050811</v>
@@ -33357,22 +33357,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P31" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q31" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S31" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T31" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H32" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I32" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J32" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M32" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N32" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O32" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P32" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R32" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S32" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T32" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H33" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J33" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K33" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O33" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P33" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R33" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S33" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T33" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,16 +33576,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K34" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L34" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M34" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N34" t="n">
         <v>190.4502029050811</v>
@@ -33594,22 +33594,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P34" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q34" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R34" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S34" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T34" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H35" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I35" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J35" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M35" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N35" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O35" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P35" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q35" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R35" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S35" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T35" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H36" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K36" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M36" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O36" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P36" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R36" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S36" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T36" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,16 +33813,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K37" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L37" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M37" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N37" t="n">
         <v>190.4502029050811</v>
@@ -33831,22 +33831,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P37" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q37" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R37" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S37" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T37" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H38" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I38" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J38" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R38" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T38" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H39" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K39" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O39" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P39" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R39" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S39" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,16 +34050,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K40" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L40" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M40" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N40" t="n">
         <v>190.4502029050811</v>
@@ -34068,22 +34068,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P40" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q40" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S40" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T40" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,7 +34135,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M41" t="n">
         <v>487.1800911865844</v>
@@ -34144,25 +34144,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P41" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R41" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S41" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T41" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H42" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
         <v>51.11090168856212</v>
@@ -34211,16 +34211,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O42" t="n">
         <v>353.1991189680801</v>
@@ -34232,16 +34232,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S42" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I43" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K43" t="n">
         <v>144.5941658128042</v>
@@ -34299,10 +34299,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N43" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P43" t="n">
         <v>150.5227528930788</v>
@@ -34311,16 +34311,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S43" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,7 +34372,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M44" t="n">
         <v>487.1800911865844</v>
@@ -34381,25 +34381,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P44" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R44" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T44" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H45" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I45" t="n">
         <v>51.11090168856212</v>
@@ -34448,16 +34448,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O45" t="n">
         <v>353.1991189680801</v>
@@ -34469,16 +34469,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I46" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K46" t="n">
         <v>144.5941658128042</v>
@@ -34536,10 +34536,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N46" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P46" t="n">
         <v>150.5227528930788</v>
@@ -34548,16 +34548,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S46" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.43736280210931</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K11" t="n">
         <v>132.838523941105</v>
@@ -35419,13 +35419,13 @@
         <v>256.8338579593117</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964966</v>
+        <v>291.7057704824244</v>
       </c>
       <c r="O11" t="n">
         <v>237.375905818857</v>
       </c>
       <c r="P11" t="n">
-        <v>362.8976227715926</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q11" t="n">
         <v>289.6254210199502</v>
@@ -35498,16 +35498,16 @@
         <v>234.0031368484572</v>
       </c>
       <c r="N12" t="n">
-        <v>254.750690366354</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="O12" t="n">
         <v>210.6028745236357</v>
       </c>
       <c r="P12" t="n">
-        <v>153.1718902003978</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q12" t="n">
-        <v>259.5899955280329</v>
+        <v>62.98448692794575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K14" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L14" t="n">
-        <v>233.2414699905374</v>
+        <v>355.3502332701058</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593119</v>
+        <v>625.6204180233013</v>
       </c>
       <c r="N14" t="n">
-        <v>265.6501107964968</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O14" t="n">
-        <v>237.3759058188572</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850739</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q14" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R14" t="n">
-        <v>24.41534328911834</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K15" t="n">
-        <v>282.99587173013</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L15" t="n">
-        <v>183.7698480025804</v>
+        <v>544.4527774955436</v>
       </c>
       <c r="M15" t="n">
-        <v>625.6204180233013</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N15" t="n">
-        <v>625.6204180233013</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O15" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P15" t="n">
-        <v>149.4990241419269</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q15" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K16" t="n">
-        <v>201.893407791204</v>
+        <v>201.8934077912039</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1895092760699</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M16" t="n">
         <v>314.2415936385945</v>
@@ -35820,10 +35820,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P16" t="n">
-        <v>227.3700459622545</v>
+        <v>227.3700459622548</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413287</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1168759006288</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K17" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L17" t="n">
-        <v>202.0724422619475</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593119</v>
+        <v>609.8015938593861</v>
       </c>
       <c r="N17" t="n">
-        <v>265.6501107964968</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O17" t="n">
-        <v>618.1760870816025</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P17" t="n">
-        <v>167.7453479135913</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q17" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>136.8445242456975</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K18" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L18" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M18" t="n">
-        <v>625.6204180233013</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N18" t="n">
-        <v>625.6204180233013</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O18" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P18" t="n">
-        <v>149.4990241419269</v>
+        <v>457.8043769713681</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.5127077921839</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M19" t="n">
-        <v>234.672859834312</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N19" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O19" t="n">
         <v>200.4967155554702</v>
@@ -36060,7 +36060,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K20" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L20" t="n">
-        <v>257.6568132796558</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8338579593119</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N20" t="n">
-        <v>265.6501107964968</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O20" t="n">
-        <v>237.3759058188572</v>
+        <v>268.5449335474487</v>
       </c>
       <c r="P20" t="n">
-        <v>489.5440560850739</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K21" t="n">
-        <v>366.3371824290211</v>
+        <v>356.1797666185253</v>
       </c>
       <c r="L21" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M21" t="n">
-        <v>234.0031368484574</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N21" t="n">
-        <v>254.7506903663541</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O21" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P21" t="n">
-        <v>457.8043769713678</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q21" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M22" t="n">
-        <v>234.672859834312</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N22" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O22" t="n">
         <v>200.4967155554702</v>
@@ -36297,7 +36297,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K23" t="n">
-        <v>456.9839365122698</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L23" t="n">
-        <v>593.1544568732268</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M23" t="n">
-        <v>256.8338579593119</v>
+        <v>625.8472336811565</v>
       </c>
       <c r="N23" t="n">
-        <v>265.6501107964968</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O23" t="n">
-        <v>237.3759058188572</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P23" t="n">
-        <v>167.7453479135913</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K24" t="n">
-        <v>105.9904153726292</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L24" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M24" t="n">
-        <v>629.0800981426553</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N24" t="n">
-        <v>629.0800981426553</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O24" t="n">
-        <v>604.4651938003653</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P24" t="n">
-        <v>149.4990241419269</v>
+        <v>203.7320284571357</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.5127077921839</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M25" t="n">
-        <v>234.672859834312</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N25" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O25" t="n">
         <v>200.4967155554702</v>
@@ -36534,7 +36534,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K26" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L26" t="n">
-        <v>619.733656812398</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M26" t="n">
-        <v>706.3473914521444</v>
+        <v>594.090318843868</v>
       </c>
       <c r="N26" t="n">
-        <v>702.997035208481</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O26" t="n">
-        <v>618.1760870816025</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850739</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.7135797200945</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911834</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484574</v>
+        <v>327.5196523664771</v>
       </c>
       <c r="N27" t="n">
-        <v>254.7506903663541</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O27" t="n">
-        <v>304.1193900416551</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P27" t="n">
-        <v>467.9617927818641</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q27" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K28" t="n">
-        <v>201.8934077912038</v>
+        <v>201.8934077912039</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1895092760699</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M28" t="n">
         <v>314.2415936385945</v>
       </c>
       <c r="N28" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885924</v>
       </c>
       <c r="O28" t="n">
         <v>280.0654493597527</v>
       </c>
       <c r="P28" t="n">
-        <v>227.3700459622549</v>
+        <v>227.3700459622548</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413277</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K29" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L29" t="n">
-        <v>576.1899364342083</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M29" t="n">
-        <v>256.8338579593119</v>
+        <v>650.6370619931068</v>
       </c>
       <c r="N29" t="n">
-        <v>702.997035208481</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816025</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850739</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q29" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R29" t="n">
-        <v>24.41534328911834</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L30" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M30" t="n">
-        <v>234.0031368484574</v>
+        <v>327.5196523664771</v>
       </c>
       <c r="N30" t="n">
-        <v>254.7506903663541</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O30" t="n">
-        <v>304.1193900416551</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P30" t="n">
-        <v>467.9617927818641</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q30" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K31" t="n">
-        <v>201.893407791204</v>
+        <v>201.8934077912039</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1895092760699</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
         <v>314.2415936385945</v>
@@ -37005,10 +37005,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P31" t="n">
-        <v>227.3700459622549</v>
+        <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K32" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L32" t="n">
-        <v>619.733656812398</v>
+        <v>507.4765842041216</v>
       </c>
       <c r="M32" t="n">
-        <v>256.8338579593119</v>
+        <v>706.3473914521442</v>
       </c>
       <c r="N32" t="n">
-        <v>659.4533148302913</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O32" t="n">
-        <v>618.1760870816025</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850739</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q32" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R32" t="n">
-        <v>24.41534328911834</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L33" t="n">
-        <v>554.6101933060396</v>
+        <v>500.8844137139965</v>
       </c>
       <c r="M33" t="n">
-        <v>327.5196523664767</v>
+        <v>699.7082005984571</v>
       </c>
       <c r="N33" t="n">
-        <v>254.7506903663541</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O33" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P33" t="n">
-        <v>467.9617927818641</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076934</v>
+        <v>74.19928980076938</v>
       </c>
       <c r="K34" t="n">
         <v>201.893407791204</v>
@@ -37236,16 +37236,16 @@
         <v>314.2415936385945</v>
       </c>
       <c r="N34" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885923</v>
       </c>
       <c r="O34" t="n">
         <v>280.0654493597528</v>
       </c>
       <c r="P34" t="n">
-        <v>227.3700459622543</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413281</v>
+        <v>97.62084245412989</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L35" t="n">
-        <v>619.733656812398</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7721141563671</v>
+        <v>382.8016407651155</v>
       </c>
       <c r="N35" t="n">
-        <v>673.7721141563671</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O35" t="n">
-        <v>268.2557907599954</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P35" t="n">
-        <v>167.7453479135913</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q35" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K36" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L36" t="n">
-        <v>554.6101933060396</v>
+        <v>183.7698480025803</v>
       </c>
       <c r="M36" t="n">
-        <v>327.5196523664762</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7506903663541</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="O36" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P36" t="n">
-        <v>467.9617927818641</v>
+        <v>337.9934895179981</v>
       </c>
       <c r="Q36" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M37" t="n">
-        <v>234.672859834312</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N37" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O37" t="n">
         <v>200.4967155554702</v>
@@ -37482,7 +37482,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K38" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L38" t="n">
-        <v>202.0724422619475</v>
+        <v>337.5794362583317</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593119</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N38" t="n">
         <v>673.7721141563675</v>
       </c>
       <c r="O38" t="n">
-        <v>399.6449475040408</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P38" t="n">
-        <v>489.5440560850739</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L39" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M39" t="n">
-        <v>234.0031368484574</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N39" t="n">
-        <v>254.7506903663541</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O39" t="n">
-        <v>304.1193900416546</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P39" t="n">
-        <v>467.9617927818641</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M40" t="n">
-        <v>234.672859834312</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N40" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O40" t="n">
         <v>200.4967155554702</v>
@@ -37719,7 +37719,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.43736280210928</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L41" t="n">
-        <v>619.7336568123977</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7721141563673</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N41" t="n">
-        <v>673.7721141563673</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O41" t="n">
-        <v>237.375905818857</v>
+        <v>459.2061950036287</v>
       </c>
       <c r="P41" t="n">
-        <v>167.745347913591</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q41" t="n">
-        <v>108.190315301185</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K42" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L42" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M42" t="n">
-        <v>234.0031368484572</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N42" t="n">
-        <v>348.2672058843737</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O42" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P42" t="n">
         <v>467.9617927818639</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L43" t="n">
         <v>212.6207754717873</v>
@@ -37950,13 +37950,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O43" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P43" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>223.533977974183</v>
+        <v>64.56408589620946</v>
       </c>
       <c r="K44" t="n">
         <v>456.9839365122697</v>
       </c>
       <c r="L44" t="n">
-        <v>423.9027314467194</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M44" t="n">
         <v>256.8338579593117</v>
@@ -38029,16 +38029,16 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O44" t="n">
-        <v>237.375905818857</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P44" t="n">
         <v>489.5440560850737</v>
       </c>
       <c r="Q44" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R44" t="n">
-        <v>24.41534328911825</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.41459413248191</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8719454164424</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L45" t="n">
-        <v>314.5703171781806</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M45" t="n">
-        <v>673.7721141563673</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N45" t="n">
-        <v>673.7721141563673</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O45" t="n">
-        <v>604.4651938003651</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P45" t="n">
-        <v>149.4990241419267</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.51270779218379</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L46" t="n">
         <v>212.6207754717873</v>
@@ -38187,13 +38187,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O46" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P46" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
